--- a/data/pca/factorExposure/factorExposure_2009-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-24.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0166230596231775</v>
+        <v>-0.01589461402395383</v>
       </c>
       <c r="C2">
-        <v>0.002555611422963406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001932036929148472</v>
+      </c>
+      <c r="D2">
+        <v>0.01048428020024648</v>
+      </c>
+      <c r="E2">
+        <v>-0.01559890567028111</v>
+      </c>
+      <c r="F2">
+        <v>0.005364958747600499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08112475969744215</v>
+        <v>-0.08416990916781911</v>
       </c>
       <c r="C4">
-        <v>0.02018844419015265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01597955323133525</v>
+      </c>
+      <c r="D4">
+        <v>0.08858573052680087</v>
+      </c>
+      <c r="E4">
+        <v>0.05378340426492639</v>
+      </c>
+      <c r="F4">
+        <v>-0.01740614902839294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001821017955428774</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001486408228108874</v>
+      </c>
+      <c r="D5">
+        <v>0.001185010923051592</v>
+      </c>
+      <c r="E5">
+        <v>0.001351395666001325</v>
+      </c>
+      <c r="F5">
+        <v>0.002767400101227264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1653251884646937</v>
+        <v>-0.1689383664045365</v>
       </c>
       <c r="C6">
-        <v>0.04212847285912459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03822308660457738</v>
+      </c>
+      <c r="D6">
+        <v>-0.001871648068925048</v>
+      </c>
+      <c r="E6">
+        <v>0.060928020950667</v>
+      </c>
+      <c r="F6">
+        <v>-0.01277994302605502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0547714558979866</v>
+        <v>-0.05937030413165267</v>
       </c>
       <c r="C7">
-        <v>0.002386924204963687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0007108309875732871</v>
+      </c>
+      <c r="D7">
+        <v>0.05853342693144223</v>
+      </c>
+      <c r="E7">
+        <v>0.03385655950868988</v>
+      </c>
+      <c r="F7">
+        <v>-0.05439239408846095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05775659840955571</v>
+        <v>-0.05347606485077221</v>
       </c>
       <c r="C8">
-        <v>-0.008959061785320561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01083499733453458</v>
+      </c>
+      <c r="D8">
+        <v>0.03783669350155497</v>
+      </c>
+      <c r="E8">
+        <v>-0.02122969224285636</v>
+      </c>
+      <c r="F8">
+        <v>0.02260652816389142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06204248860965226</v>
+        <v>-0.06537368851487624</v>
       </c>
       <c r="C9">
-        <v>0.01511436815004514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01105817140726906</v>
+      </c>
+      <c r="D9">
+        <v>0.09389356646643776</v>
+      </c>
+      <c r="E9">
+        <v>0.07206922722996084</v>
+      </c>
+      <c r="F9">
+        <v>-0.0235882555476138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1026199194456565</v>
+        <v>-0.09637885505893574</v>
       </c>
       <c r="C10">
-        <v>0.02912246068668181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02852651221118894</v>
+      </c>
+      <c r="D10">
+        <v>-0.1475327962172561</v>
+      </c>
+      <c r="E10">
+        <v>-0.09698110121503016</v>
+      </c>
+      <c r="F10">
+        <v>0.01273137613139526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08110649755561423</v>
+        <v>-0.07889364150626199</v>
       </c>
       <c r="C11">
-        <v>0.01682432894519783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01198864179883194</v>
+      </c>
+      <c r="D11">
+        <v>0.1348063586451301</v>
+      </c>
+      <c r="E11">
+        <v>0.03827925483755763</v>
+      </c>
+      <c r="F11">
+        <v>0.005295065522070473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08508315208519035</v>
+        <v>-0.08061102667198665</v>
       </c>
       <c r="C12">
-        <v>0.01417209378495492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008801230332726551</v>
+      </c>
+      <c r="D12">
+        <v>0.1509419578008822</v>
+      </c>
+      <c r="E12">
+        <v>0.03869833003693602</v>
+      </c>
+      <c r="F12">
+        <v>-0.008949962511814145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04233234220712204</v>
+        <v>-0.04245936714914028</v>
       </c>
       <c r="C13">
-        <v>0.008443615971163498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.004226205334261299</v>
+      </c>
+      <c r="D13">
+        <v>0.06625710160784605</v>
+      </c>
+      <c r="E13">
+        <v>0.01171983085833244</v>
+      </c>
+      <c r="F13">
+        <v>-0.01907304163390219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02023363385534552</v>
+        <v>-0.02296919432988501</v>
       </c>
       <c r="C14">
-        <v>0.01497230603306882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01398019451035443</v>
+      </c>
+      <c r="D14">
+        <v>0.04613600141329263</v>
+      </c>
+      <c r="E14">
+        <v>0.03376788745635687</v>
+      </c>
+      <c r="F14">
+        <v>0.002207927351919733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03054417333671673</v>
+        <v>-0.0326944289438952</v>
       </c>
       <c r="C15">
-        <v>0.008113535522614049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.006612323121705697</v>
+      </c>
+      <c r="D15">
+        <v>0.05404101020004941</v>
+      </c>
+      <c r="E15">
+        <v>0.02886602078612126</v>
+      </c>
+      <c r="F15">
+        <v>-0.01610603798544109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06013586278922602</v>
+        <v>-0.06048645635123324</v>
       </c>
       <c r="C16">
-        <v>0.00373469664114075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.0003283742482220223</v>
+      </c>
+      <c r="D16">
+        <v>0.1451917802875227</v>
+      </c>
+      <c r="E16">
+        <v>0.04459741487868375</v>
+      </c>
+      <c r="F16">
+        <v>0.01537330868282818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.004098677290704925</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.001048525251259091</v>
+      </c>
+      <c r="D17">
+        <v>0.003306329621284492</v>
+      </c>
+      <c r="E17">
+        <v>-0.0001581563942866873</v>
+      </c>
+      <c r="F17">
+        <v>0.008280872384387196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03437744859486373</v>
+        <v>-0.05029414964505466</v>
       </c>
       <c r="C18">
-        <v>0.001313779751861585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.001834942081180369</v>
+      </c>
+      <c r="D18">
+        <v>0.03496912309220508</v>
+      </c>
+      <c r="E18">
+        <v>-0.0129297925053331</v>
+      </c>
+      <c r="F18">
+        <v>0.001165713091197364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05889460290649994</v>
+        <v>-0.05887614110494166</v>
       </c>
       <c r="C20">
-        <v>0.005157733780124039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.002032158435472261</v>
+      </c>
+      <c r="D20">
+        <v>0.09858228407204893</v>
+      </c>
+      <c r="E20">
+        <v>0.06724996020093538</v>
+      </c>
+      <c r="F20">
+        <v>0.006604305896199632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04236962056142794</v>
+        <v>-0.04408534898882484</v>
       </c>
       <c r="C21">
-        <v>0.01145019974555227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008864661061600033</v>
+      </c>
+      <c r="D21">
+        <v>0.05586104662850621</v>
+      </c>
+      <c r="E21">
+        <v>-0.009800854551877063</v>
+      </c>
+      <c r="F21">
+        <v>-0.004315669484374262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04536283758436729</v>
+        <v>-0.04361113330177886</v>
       </c>
       <c r="C22">
-        <v>0.004584867620154845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.002576680130440604</v>
+      </c>
+      <c r="D22">
+        <v>0.02240474155021158</v>
+      </c>
+      <c r="E22">
+        <v>-0.02525001851400838</v>
+      </c>
+      <c r="F22">
+        <v>0.1253571893071288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0453720616387113</v>
+        <v>-0.04361900511981811</v>
       </c>
       <c r="C23">
-        <v>0.004587741458586386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.00257920633030637</v>
+      </c>
+      <c r="D23">
+        <v>0.02239901916771025</v>
+      </c>
+      <c r="E23">
+        <v>-0.02527248631480098</v>
+      </c>
+      <c r="F23">
+        <v>0.1253980352345007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.06913690686515828</v>
+        <v>-0.06835144959752376</v>
       </c>
       <c r="C24">
-        <v>0.005811480443497601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001525781619228002</v>
+      </c>
+      <c r="D24">
+        <v>0.1369009429044258</v>
+      </c>
+      <c r="E24">
+        <v>0.04317769086487355</v>
+      </c>
+      <c r="F24">
+        <v>-0.004345498000949913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07490105959198823</v>
+        <v>-0.07304474292510438</v>
       </c>
       <c r="C25">
-        <v>0.008809400879882207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004574470023871719</v>
+      </c>
+      <c r="D25">
+        <v>0.1247226684457712</v>
+      </c>
+      <c r="E25">
+        <v>0.02444987763466243</v>
+      </c>
+      <c r="F25">
+        <v>-0.02371369687775406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0555736573731939</v>
+        <v>-0.06009251921971025</v>
       </c>
       <c r="C26">
-        <v>0.01890791885076249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01613548727921988</v>
+      </c>
+      <c r="D26">
+        <v>0.0680837980398205</v>
+      </c>
+      <c r="E26">
+        <v>0.005277618961812639</v>
+      </c>
+      <c r="F26">
+        <v>0.007055342629036482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1637367566019537</v>
+        <v>-0.1672230386706573</v>
       </c>
       <c r="C28">
-        <v>0.03758104932702765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.03771540050099484</v>
+      </c>
+      <c r="D28">
+        <v>-0.2359353952792515</v>
+      </c>
+      <c r="E28">
+        <v>-0.03228811466004654</v>
+      </c>
+      <c r="F28">
+        <v>-0.05142986318797713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02389545906938122</v>
+        <v>-0.0268457212027807</v>
       </c>
       <c r="C29">
-        <v>0.009486262855120968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.009189183279438597</v>
+      </c>
+      <c r="D29">
+        <v>0.04256315103107104</v>
+      </c>
+      <c r="E29">
+        <v>-0.002227048251614956</v>
+      </c>
+      <c r="F29">
+        <v>0.02265718836037063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04165998500851215</v>
+        <v>-0.0433885172685101</v>
       </c>
       <c r="C30">
-        <v>0.003955478831188894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.0006077627205249773</v>
+      </c>
+      <c r="D30">
+        <v>0.07905933473595032</v>
+      </c>
+      <c r="E30">
+        <v>0.08508663570432341</v>
+      </c>
+      <c r="F30">
+        <v>-0.07742723904643548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05145598212872501</v>
+        <v>-0.05139346433883332</v>
       </c>
       <c r="C31">
-        <v>0.02038656268748039</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01778057153382629</v>
+      </c>
+      <c r="D31">
+        <v>0.03721844878976802</v>
+      </c>
+      <c r="E31">
+        <v>0.01299701441565746</v>
+      </c>
+      <c r="F31">
+        <v>0.03156827800580998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04273434366667106</v>
+        <v>-0.04813376053810356</v>
       </c>
       <c r="C32">
-        <v>0.001115778810291451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0009841308753921489</v>
+      </c>
+      <c r="D32">
+        <v>0.04048655874809048</v>
+      </c>
+      <c r="E32">
+        <v>0.01873374917585981</v>
+      </c>
+      <c r="F32">
+        <v>0.01703777393606215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08036207076089333</v>
+        <v>-0.08334626415099791</v>
       </c>
       <c r="C33">
-        <v>0.01331744641483308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.00814028039814352</v>
+      </c>
+      <c r="D33">
+        <v>0.1195149889865177</v>
+      </c>
+      <c r="E33">
+        <v>0.05184125837377197</v>
+      </c>
+      <c r="F33">
+        <v>0.008859716742911413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05744180986608718</v>
+        <v>-0.05762436121105263</v>
       </c>
       <c r="C34">
-        <v>0.0142944203953526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009673861270091585</v>
+      </c>
+      <c r="D34">
+        <v>0.1265571429354614</v>
+      </c>
+      <c r="E34">
+        <v>0.04403762585120266</v>
+      </c>
+      <c r="F34">
+        <v>-0.02776506299469017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02695858762271561</v>
+        <v>-0.02846859985460933</v>
       </c>
       <c r="C35">
-        <v>0.005729314955076989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004832730860544434</v>
+      </c>
+      <c r="D35">
+        <v>0.01787540626240778</v>
+      </c>
+      <c r="E35">
+        <v>0.01477669765352665</v>
+      </c>
+      <c r="F35">
+        <v>0.01912829572848643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02251785166397098</v>
+        <v>-0.02730172474978715</v>
       </c>
       <c r="C36">
-        <v>0.008811213989513015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007761358381330729</v>
+      </c>
+      <c r="D36">
+        <v>0.0490687843581857</v>
+      </c>
+      <c r="E36">
+        <v>0.04264230620158623</v>
+      </c>
+      <c r="F36">
+        <v>0.008060066102671782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003219689370294138</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0008299349479828744</v>
+      </c>
+      <c r="D37">
+        <v>0.005166185658263253</v>
+      </c>
+      <c r="E37">
+        <v>-0.001056256968352524</v>
+      </c>
+      <c r="F37">
+        <v>0.0009856702386336774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.08649203824560285</v>
+        <v>-0.08040114975726149</v>
       </c>
       <c r="C39">
-        <v>0.01896821735038725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.0135061499606809</v>
+      </c>
+      <c r="D39">
+        <v>0.1522555097888579</v>
+      </c>
+      <c r="E39">
+        <v>0.02625718880089798</v>
+      </c>
+      <c r="F39">
+        <v>0.003806365498603076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04468400335682939</v>
+        <v>-0.05037199837769632</v>
       </c>
       <c r="C40">
-        <v>0.0131693279720732</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01133254744913941</v>
+      </c>
+      <c r="D40">
+        <v>0.05927004406131321</v>
+      </c>
+      <c r="E40">
+        <v>-0.01048520666573477</v>
+      </c>
+      <c r="F40">
+        <v>-0.003594046135740749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02709106727766501</v>
+        <v>-0.02900818046266344</v>
       </c>
       <c r="C41">
-        <v>0.009052096094002593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008206713709344384</v>
+      </c>
+      <c r="D41">
+        <v>0.02492441336307123</v>
+      </c>
+      <c r="E41">
+        <v>-0.004175317800459028</v>
+      </c>
+      <c r="F41">
+        <v>0.005642043092360354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04204285277313424</v>
+        <v>-0.04100562270678098</v>
       </c>
       <c r="C43">
-        <v>0.01035394154009424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.009018939364645144</v>
+      </c>
+      <c r="D43">
+        <v>0.03644023653227966</v>
+      </c>
+      <c r="E43">
+        <v>-0.001925305900609263</v>
+      </c>
+      <c r="F43">
+        <v>0.02517297922826623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05511224610252764</v>
+        <v>-0.06324779170160723</v>
       </c>
       <c r="C44">
-        <v>0.02074958532404618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01835751219448851</v>
+      </c>
+      <c r="D44">
+        <v>0.0896030961025365</v>
+      </c>
+      <c r="E44">
+        <v>0.2291068566225226</v>
+      </c>
+      <c r="F44">
+        <v>-0.08766325505865724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0001449217518245115</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>6.773555707826725e-05</v>
+      </c>
+      <c r="D45">
+        <v>0.000138426215202255</v>
+      </c>
+      <c r="E45">
+        <v>-0.000430968229822857</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001129692032336839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02598445670056162</v>
+        <v>-0.0266209393382911</v>
       </c>
       <c r="C46">
-        <v>0.006322326313653921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004929170013877934</v>
+      </c>
+      <c r="D46">
+        <v>0.02862951399397121</v>
+      </c>
+      <c r="E46">
+        <v>0.004530084309051352</v>
+      </c>
+      <c r="F46">
+        <v>0.03156311111617022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05134414456266795</v>
+        <v>-0.05070546586981445</v>
       </c>
       <c r="C47">
-        <v>0.007764003618376629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005584555023094137</v>
+      </c>
+      <c r="D47">
+        <v>0.02220497633796186</v>
+      </c>
+      <c r="E47">
+        <v>-0.01000137726719745</v>
+      </c>
+      <c r="F47">
+        <v>0.05428773280149707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04683017472599082</v>
+        <v>-0.05065124998541846</v>
       </c>
       <c r="C48">
-        <v>0.006231770252167244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.003875628705514263</v>
+      </c>
+      <c r="D48">
+        <v>0.06450221871886118</v>
+      </c>
+      <c r="E48">
+        <v>0.007968691427234817</v>
+      </c>
+      <c r="F48">
+        <v>-0.0216964436232286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1932326832584289</v>
+        <v>-0.196935438748039</v>
       </c>
       <c r="C49">
-        <v>0.03303496171245845</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02748733847428553</v>
+      </c>
+      <c r="D49">
+        <v>-0.005572257437134195</v>
+      </c>
+      <c r="E49">
+        <v>0.03596641123675941</v>
+      </c>
+      <c r="F49">
+        <v>-0.0345958601217566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0494656508551267</v>
+        <v>-0.05165466912964894</v>
       </c>
       <c r="C50">
-        <v>0.01565680380567569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01373940849538856</v>
+      </c>
+      <c r="D50">
+        <v>0.03370311864342221</v>
+      </c>
+      <c r="E50">
+        <v>0.02308133610295326</v>
+      </c>
+      <c r="F50">
+        <v>0.01822967200466144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1443014503902069</v>
+        <v>-0.1387688031573262</v>
       </c>
       <c r="C52">
-        <v>0.02749345763371435</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.02265213576125587</v>
+      </c>
+      <c r="D52">
+        <v>0.04427977448613151</v>
+      </c>
+      <c r="E52">
+        <v>0.06176875545370354</v>
+      </c>
+      <c r="F52">
+        <v>0.01764663750991717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1747894934490104</v>
+        <v>-0.1667843561476086</v>
       </c>
       <c r="C53">
-        <v>0.03363131372893534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02859333556641567</v>
+      </c>
+      <c r="D53">
+        <v>0.02100297207567384</v>
+      </c>
+      <c r="E53">
+        <v>0.1161745710335335</v>
+      </c>
+      <c r="F53">
+        <v>0.007609569036188698</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01151612249546155</v>
+        <v>-0.01483077098872841</v>
       </c>
       <c r="C54">
-        <v>0.01134581381683182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01045627559898388</v>
+      </c>
+      <c r="D54">
+        <v>0.03527761983497237</v>
+      </c>
+      <c r="E54">
+        <v>0.01025122897105295</v>
+      </c>
+      <c r="F54">
+        <v>0.01404351481067669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1202073197216737</v>
+        <v>-0.1174009242608212</v>
       </c>
       <c r="C55">
-        <v>0.02846043076517435</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02468167733117983</v>
+      </c>
+      <c r="D55">
+        <v>0.02239014982901255</v>
+      </c>
+      <c r="E55">
+        <v>0.07567123210019798</v>
+      </c>
+      <c r="F55">
+        <v>0.04070616802726103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1803978167185104</v>
+        <v>-0.1739282239524778</v>
       </c>
       <c r="C56">
-        <v>0.03138254261144357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02691482133387274</v>
+      </c>
+      <c r="D56">
+        <v>0.0102070524488616</v>
+      </c>
+      <c r="E56">
+        <v>0.07934063059138859</v>
+      </c>
+      <c r="F56">
+        <v>0.03445888949725986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04659583812463902</v>
+        <v>-0.04610112752432518</v>
       </c>
       <c r="C58">
-        <v>0.005164056424293939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001110271919364004</v>
+      </c>
+      <c r="D58">
+        <v>0.1012764429623289</v>
+      </c>
+      <c r="E58">
+        <v>-0.001748547910408648</v>
+      </c>
+      <c r="F58">
+        <v>0.04165214027199653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1793610278797563</v>
+        <v>-0.1833968407090464</v>
       </c>
       <c r="C59">
-        <v>0.03590088538200634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03578183819633898</v>
+      </c>
+      <c r="D59">
+        <v>-0.2006757143923939</v>
+      </c>
+      <c r="E59">
+        <v>-0.0822414299640697</v>
+      </c>
+      <c r="F59">
+        <v>0.01089063383451496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2172436256315022</v>
+        <v>-0.2129903530403494</v>
       </c>
       <c r="C60">
-        <v>0.01238585049787393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.006151915747159718</v>
+      </c>
+      <c r="D60">
+        <v>0.02052552211559699</v>
+      </c>
+      <c r="E60">
+        <v>-0.018523127279468</v>
+      </c>
+      <c r="F60">
+        <v>0.01431178526136827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.06752354816363458</v>
+        <v>-0.06424073059130654</v>
       </c>
       <c r="C61">
-        <v>0.01510998965674682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01047342329606272</v>
+      </c>
+      <c r="D61">
+        <v>0.119294119307231</v>
+      </c>
+      <c r="E61">
+        <v>0.01415481905013244</v>
+      </c>
+      <c r="F61">
+        <v>0.01300501315392774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1678619725377213</v>
+        <v>-0.1645758780670148</v>
       </c>
       <c r="C62">
-        <v>0.0331117162998985</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0287081670545582</v>
+      </c>
+      <c r="D62">
+        <v>0.01084705187765261</v>
+      </c>
+      <c r="E62">
+        <v>0.07068656549732494</v>
+      </c>
+      <c r="F62">
+        <v>0.04197646000666145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03838967303009518</v>
+        <v>-0.04371341653840304</v>
       </c>
       <c r="C63">
-        <v>0.004933941751702637</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002881092096466353</v>
+      </c>
+      <c r="D63">
+        <v>0.07142011720450067</v>
+      </c>
+      <c r="E63">
+        <v>0.01474919919564288</v>
+      </c>
+      <c r="F63">
+        <v>0.02081334017250045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1114976706022437</v>
+        <v>-0.1099279065433222</v>
       </c>
       <c r="C64">
-        <v>0.02145136323672669</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01696586712185834</v>
+      </c>
+      <c r="D64">
+        <v>0.05489973103719946</v>
+      </c>
+      <c r="E64">
+        <v>0.03498037227086867</v>
+      </c>
+      <c r="F64">
+        <v>0.003244457899190944</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1539500712182262</v>
+        <v>-0.1580519174565728</v>
       </c>
       <c r="C65">
-        <v>0.04828644424542922</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04515539929397538</v>
+      </c>
+      <c r="D65">
+        <v>-0.03758467169380435</v>
+      </c>
+      <c r="E65">
+        <v>0.0601962716510147</v>
+      </c>
+      <c r="F65">
+        <v>-0.0002572648100107754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1051942745742009</v>
+        <v>-0.0981787062247623</v>
       </c>
       <c r="C66">
-        <v>0.01749232166747569</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01126738975698902</v>
+      </c>
+      <c r="D66">
+        <v>0.137109727795802</v>
+      </c>
+      <c r="E66">
+        <v>0.02865439632736806</v>
+      </c>
+      <c r="F66">
+        <v>0.0002761684810556136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05778932263296162</v>
+        <v>-0.04868342892361573</v>
       </c>
       <c r="C67">
-        <v>0.006109499300426434</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003169283618876016</v>
+      </c>
+      <c r="D67">
+        <v>0.06503463530201765</v>
+      </c>
+      <c r="E67">
+        <v>-0.05121689797173071</v>
+      </c>
+      <c r="F67">
+        <v>0.07412233136489664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1318404270323581</v>
+        <v>-0.1362105368306409</v>
       </c>
       <c r="C68">
-        <v>0.0437207220359089</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04592060440740969</v>
+      </c>
+      <c r="D68">
+        <v>-0.2521703064035571</v>
+      </c>
+      <c r="E68">
+        <v>-0.04860329240356182</v>
+      </c>
+      <c r="F68">
+        <v>-0.08346168464851764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03901205511073731</v>
+        <v>-0.03872120281449245</v>
       </c>
       <c r="C69">
-        <v>0.004070432984484389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.002698595794054772</v>
+      </c>
+      <c r="D69">
+        <v>0.01338832237673238</v>
+      </c>
+      <c r="E69">
+        <v>0.01827715909287603</v>
+      </c>
+      <c r="F69">
+        <v>0.05497935544909174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07157814809038834</v>
+        <v>-0.0723854974005483</v>
       </c>
       <c r="C70">
-        <v>-0.02090847407662117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02289241307071174</v>
+      </c>
+      <c r="D70">
+        <v>0.05308851386331032</v>
+      </c>
+      <c r="E70">
+        <v>-0.3371791773565578</v>
+      </c>
+      <c r="F70">
+        <v>0.1985949255420887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1532658969359839</v>
+        <v>-0.1588730042587107</v>
       </c>
       <c r="C71">
-        <v>0.05081164876826193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05220082759609469</v>
+      </c>
+      <c r="D71">
+        <v>-0.2560406220963299</v>
+      </c>
+      <c r="E71">
+        <v>-0.05449435459740141</v>
+      </c>
+      <c r="F71">
+        <v>-0.09091500761477908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1403082769655506</v>
+        <v>-0.1462111402475207</v>
       </c>
       <c r="C72">
-        <v>0.03751838001681763</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03492474171947491</v>
+      </c>
+      <c r="D72">
+        <v>0.01644146611853428</v>
+      </c>
+      <c r="E72">
+        <v>0.07036498884432683</v>
+      </c>
+      <c r="F72">
+        <v>0.031386577670052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1929229051819018</v>
+        <v>-0.2007122774710687</v>
       </c>
       <c r="C73">
-        <v>0.02624343760770212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01969133839039259</v>
+      </c>
+      <c r="D73">
+        <v>0.03473691303197624</v>
+      </c>
+      <c r="E73">
+        <v>0.07713850983393859</v>
+      </c>
+      <c r="F73">
+        <v>0.05987402665728383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08690979902579697</v>
+        <v>-0.08717208728708399</v>
       </c>
       <c r="C74">
-        <v>0.01858958624351017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01593876913485189</v>
+      </c>
+      <c r="D74">
+        <v>0.02062738784917366</v>
+      </c>
+      <c r="E74">
+        <v>0.08520068408465559</v>
+      </c>
+      <c r="F74">
+        <v>0.01197910950384608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1235841754631688</v>
+        <v>-0.1167539339736171</v>
       </c>
       <c r="C75">
-        <v>0.0367064158226081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03214666913123499</v>
+      </c>
+      <c r="D75">
+        <v>0.03538045854419843</v>
+      </c>
+      <c r="E75">
+        <v>0.06832864615800119</v>
+      </c>
+      <c r="F75">
+        <v>0.05647054065672209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07427363496819515</v>
+        <v>-0.08817965433981471</v>
       </c>
       <c r="C77">
-        <v>0.01466907325426125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.0119187505118636</v>
+      </c>
+      <c r="D77">
+        <v>0.1264702147302856</v>
+      </c>
+      <c r="E77">
+        <v>0.0603484509373101</v>
+      </c>
+      <c r="F77">
+        <v>-0.02481486908891692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.08953718049959086</v>
+        <v>-0.09229419819704873</v>
       </c>
       <c r="C78">
-        <v>0.04227922592263491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03892710672270228</v>
+      </c>
+      <c r="D78">
+        <v>0.1409954110524476</v>
+      </c>
+      <c r="E78">
+        <v>0.05075150364836653</v>
+      </c>
+      <c r="F78">
+        <v>-0.01775739125791386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1668381180928591</v>
+        <v>-0.1628137574325094</v>
       </c>
       <c r="C79">
-        <v>0.03666411569313419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.03163598243317772</v>
+      </c>
+      <c r="D79">
+        <v>0.03003595536127219</v>
+      </c>
+      <c r="E79">
+        <v>0.04594644686620635</v>
+      </c>
+      <c r="F79">
+        <v>0.03806000411285102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07647029547593383</v>
+        <v>-0.07379232469178153</v>
       </c>
       <c r="C80">
-        <v>0.004574236366220319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.001890216512348237</v>
+      </c>
+      <c r="D80">
+        <v>0.05657836808979094</v>
+      </c>
+      <c r="E80">
+        <v>-0.01760166158654031</v>
+      </c>
+      <c r="F80">
+        <v>0.04888863794676782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1101978000838302</v>
+        <v>-0.1049547836149249</v>
       </c>
       <c r="C81">
-        <v>0.03763523754908826</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03475256062622173</v>
+      </c>
+      <c r="D81">
+        <v>0.0008866156116853088</v>
+      </c>
+      <c r="E81">
+        <v>0.04755432887706745</v>
+      </c>
+      <c r="F81">
+        <v>0.06186440139960132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1593046605162925</v>
+        <v>-0.1573300282460577</v>
       </c>
       <c r="C82">
-        <v>0.03622616516439798</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.0315648393487749</v>
+      </c>
+      <c r="D82">
+        <v>-0.005084963440717047</v>
+      </c>
+      <c r="E82">
+        <v>0.1035048820630232</v>
+      </c>
+      <c r="F82">
+        <v>0.002402833039670729</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05322348050327625</v>
+        <v>-0.04919801011192405</v>
       </c>
       <c r="C83">
-        <v>0.006566003010802454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004081169338555427</v>
+      </c>
+      <c r="D83">
+        <v>0.05006576557224288</v>
+      </c>
+      <c r="E83">
+        <v>-0.01816946908779189</v>
+      </c>
+      <c r="F83">
+        <v>0.00414493923918901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05190105030030047</v>
+        <v>-0.04922176730721426</v>
       </c>
       <c r="C84">
-        <v>0.01412060733362536</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01113521624643077</v>
+      </c>
+      <c r="D84">
+        <v>0.07740774146706958</v>
+      </c>
+      <c r="E84">
+        <v>0.00755534105142319</v>
+      </c>
+      <c r="F84">
+        <v>0.005807576684115693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1389611730295401</v>
+        <v>-0.13394010757342</v>
       </c>
       <c r="C85">
-        <v>0.03989735882300083</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03557463877963352</v>
+      </c>
+      <c r="D85">
+        <v>0.02349818549132835</v>
+      </c>
+      <c r="E85">
+        <v>0.09268051014123067</v>
+      </c>
+      <c r="F85">
+        <v>0.015838157160305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08674887318881816</v>
+        <v>-0.08303999956493606</v>
       </c>
       <c r="C86">
-        <v>-0.0002583894444025671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.004898929919765174</v>
+      </c>
+      <c r="D86">
+        <v>0.1000322415787306</v>
+      </c>
+      <c r="E86">
+        <v>-0.5323992307450803</v>
+      </c>
+      <c r="F86">
+        <v>0.5939474125958906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08689476652202674</v>
+        <v>-0.08767070673929216</v>
       </c>
       <c r="C87">
-        <v>0.02933946627770011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.0244294924990055</v>
+      </c>
+      <c r="D87">
+        <v>0.08565916702382292</v>
+      </c>
+      <c r="E87">
+        <v>0.006294568577176134</v>
+      </c>
+      <c r="F87">
+        <v>-0.1132306411704131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06245493283129474</v>
+        <v>-0.06140080573670605</v>
       </c>
       <c r="C88">
-        <v>0.008206615503863734</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.005407045065768163</v>
+      </c>
+      <c r="D88">
+        <v>0.06716833158028099</v>
+      </c>
+      <c r="E88">
+        <v>0.02137381909144727</v>
+      </c>
+      <c r="F88">
+        <v>0.01388148046802668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1402370718833392</v>
+        <v>-0.1440829039932938</v>
       </c>
       <c r="C89">
-        <v>0.02375718396789229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.02625251638622686</v>
+      </c>
+      <c r="D89">
+        <v>-0.224506090537593</v>
+      </c>
+      <c r="E89">
+        <v>-0.04623567184916825</v>
+      </c>
+      <c r="F89">
+        <v>-0.08767420686132874</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1674215496302733</v>
+        <v>-0.1757431115292275</v>
       </c>
       <c r="C90">
-        <v>0.04802626897028307</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04994064137917544</v>
+      </c>
+      <c r="D90">
+        <v>-0.2460650696083164</v>
+      </c>
+      <c r="E90">
+        <v>-0.07894154280809153</v>
+      </c>
+      <c r="F90">
+        <v>-0.1173430477158195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1254049431562693</v>
+        <v>-0.1199680520249669</v>
       </c>
       <c r="C91">
-        <v>0.03027397576710206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02723317755403582</v>
+      </c>
+      <c r="D91">
+        <v>-0.01049073798111836</v>
+      </c>
+      <c r="E91">
+        <v>0.04179836319566287</v>
+      </c>
+      <c r="F91">
+        <v>0.09414545032323225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1626112688431931</v>
+        <v>-0.1660824795551165</v>
       </c>
       <c r="C92">
-        <v>0.03824030826412121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.03983309925042028</v>
+      </c>
+      <c r="D92">
+        <v>-0.2837405235229861</v>
+      </c>
+      <c r="E92">
+        <v>-0.06438689744423914</v>
+      </c>
+      <c r="F92">
+        <v>-0.07706534310532868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.168617012512738</v>
+        <v>-0.1771470199525151</v>
       </c>
       <c r="C93">
-        <v>0.04358768651444465</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04451391217540791</v>
+      </c>
+      <c r="D93">
+        <v>-0.2380947045704308</v>
+      </c>
+      <c r="E93">
+        <v>-0.03389589966067792</v>
+      </c>
+      <c r="F93">
+        <v>-0.06013611097433394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1199584851413193</v>
+        <v>-0.1146786320410788</v>
       </c>
       <c r="C94">
-        <v>0.03122149641883807</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02657627947636944</v>
+      </c>
+      <c r="D94">
+        <v>0.0469655754636184</v>
+      </c>
+      <c r="E94">
+        <v>0.06365915988063127</v>
+      </c>
+      <c r="F94">
+        <v>0.05721907725218351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1217924222429383</v>
+        <v>-0.1247813500218037</v>
       </c>
       <c r="C95">
-        <v>0.01383148148930512</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.007853963727952482</v>
+      </c>
+      <c r="D95">
+        <v>0.1247269516739712</v>
+      </c>
+      <c r="E95">
+        <v>0.01379154218772587</v>
+      </c>
+      <c r="F95">
+        <v>0.03799502343373258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1892030750103478</v>
+        <v>-0.1646695624847367</v>
       </c>
       <c r="C96">
-        <v>-0.9759807053396806</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9795373398426813</v>
+      </c>
+      <c r="D96">
+        <v>-0.05990148764911315</v>
+      </c>
+      <c r="E96">
+        <v>0.06149180808240886</v>
+      </c>
+      <c r="F96">
+        <v>0.007821845823065283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.191057814500852</v>
+        <v>-0.1955999344259591</v>
       </c>
       <c r="C97">
-        <v>0.009251727987075086</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.004316893307013851</v>
+      </c>
+      <c r="D97">
+        <v>-0.020359393067342</v>
+      </c>
+      <c r="E97">
+        <v>-0.1439124749787932</v>
+      </c>
+      <c r="F97">
+        <v>0.09378620047857765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1943169804729357</v>
+        <v>-0.2016149002081002</v>
       </c>
       <c r="C98">
-        <v>0.02296287326565814</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01660324903955669</v>
+      </c>
+      <c r="D98">
+        <v>0.01464428008149073</v>
+      </c>
+      <c r="E98">
+        <v>-0.1187923576866162</v>
+      </c>
+      <c r="F98">
+        <v>-0.03031617321195393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05540230578538331</v>
+        <v>-0.05521688025326892</v>
       </c>
       <c r="C99">
-        <v>-0.0004308979110311314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.002713349990185978</v>
+      </c>
+      <c r="D99">
+        <v>0.06112762301917482</v>
+      </c>
+      <c r="E99">
+        <v>0.00466014398751801</v>
+      </c>
+      <c r="F99">
+        <v>0.007879851050869626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1174469592228431</v>
+        <v>-0.1099618336689358</v>
       </c>
       <c r="C100">
-        <v>-0.03386836199730207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04075742303257611</v>
+      </c>
+      <c r="D100">
+        <v>0.3223820675485298</v>
+      </c>
+      <c r="E100">
+        <v>-0.5703255175187701</v>
+      </c>
+      <c r="F100">
+        <v>-0.6537996683338591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02383182147528886</v>
+        <v>-0.02678884032543047</v>
       </c>
       <c r="C101">
-        <v>0.009502668127596942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.009236713011736878</v>
+      </c>
+      <c r="D101">
+        <v>0.04211507651879318</v>
+      </c>
+      <c r="E101">
+        <v>-0.004588281976195688</v>
+      </c>
+      <c r="F101">
+        <v>0.02408852373102143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
